--- a/Data/Bilançolar/BEYAZ.xlsx
+++ b/Data/Bilançolar/BEYAZ.xlsx
@@ -10290,7 +10290,7 @@
         <v>1908565</v>
       </c>
       <c r="C86" t="n">
-        <v>725179</v>
+        <v>2893977</v>
       </c>
       <c r="D86" t="n">
         <v>4462342</v>
@@ -10635,7 +10635,7 @@
         <v>40401294</v>
       </c>
       <c r="C89" t="n">
-        <v>8986963</v>
+        <v>11155761</v>
       </c>
       <c r="D89" t="n">
         <v>33150116</v>
@@ -11325,7 +11325,7 @@
         <v>41832250</v>
       </c>
       <c r="C95" t="n">
-        <v>10951232</v>
+        <v>13120030</v>
       </c>
       <c r="D95" t="n">
         <v>33252094</v>
@@ -11440,7 +11440,7 @@
         <v>14251583</v>
       </c>
       <c r="C96" t="n">
-        <v>4758682</v>
+        <v>2589884</v>
       </c>
       <c r="D96" t="n">
         <v>21119767</v>
